--- a/Bases de Datos/1º Evaluación/Proyecto/Plantilla de horas.xlsx
+++ b/Bases de Datos/1º Evaluación/Proyecto/Plantilla de horas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044a8a39323ca9b2/Grado_SuperiorDAM/Bases de Datos/1º Evaluación/Proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{3C290315-6FA1-45E6-9B23-6E8622D94A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D179F4E-7B8C-4BDC-812E-87DF458731E3}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{3C290315-6FA1-45E6-9B23-6E8622D94A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4848DED-74B9-4D4F-85FB-C03DF4E54D9E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19F67831-652C-4E4F-9C4E-4CACE9A98F12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19F67831-652C-4E4F-9C4E-4CACE9A98F12}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>EDUARDO</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Reunion de mejora del modelo entidad relación y dudas</t>
+  </si>
+  <si>
+    <t>Realización y ayuda del modelo Entidad Relación en Power Designer</t>
+  </si>
+  <si>
+    <t>Realización y ayuda del modelo E-R en Gliffy</t>
   </si>
 </sst>
 </file>
@@ -289,6 +295,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,7 +601,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +633,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -654,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>44842</v>
       </c>
@@ -685,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44788</v>
       </c>
@@ -747,25 +757,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>44680</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+        <v>44900</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="10">
+        <v>44900</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="I6" s="10">
+        <v>44898</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>44626</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="13"/>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
@@ -778,9 +802,7 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>44572</v>
-      </c>
+      <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="1"/>
@@ -793,9 +815,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>44518</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="11"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
@@ -808,9 +828,7 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>44464</v>
-      </c>
+      <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
@@ -823,9 +841,7 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>44410</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="1"/>
@@ -838,9 +854,7 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>44356</v>
-      </c>
+      <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="1"/>
@@ -853,9 +867,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>44302</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="11"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
@@ -868,9 +880,7 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>44248</v>
-      </c>
+      <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="1"/>
